--- a/BackTest/2020-01-22 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-22 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4411,14 +4411,10 @@
         <v>-667654.1108440415</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4448,19 +4444,11 @@
         <v>-670742.1708440415</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4489,19 +4477,11 @@
         <v>-670742.1708440415</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4774,10 @@
         <v>-664311.4708440414</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3.823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4831,19 +4807,11 @@
         <v>-664888.8818440414</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="J134" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4872,19 +4840,11 @@
         <v>-663997.7008440414</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4913,14 +4873,10 @@
         <v>-664276.4218440414</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
@@ -4950,19 +4906,11 @@
         <v>-665028.6058440414</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4991,19 +4939,11 @@
         <v>-665028.6058440414</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5032,14 +4972,10 @@
         <v>-665028.6058440414</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3.821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
@@ -5069,19 +5005,11 @@
         <v>-665028.6058440414</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5110,19 +5038,11 @@
         <v>-663770.5688440414</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5382,14 +5302,10 @@
         <v>-659960.7568440413</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3.822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5419,19 +5335,11 @@
         <v>-658562.4468440412</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J150" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5460,19 +5368,11 @@
         <v>-657921.2598440412</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J151" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5732,14 +5632,10 @@
         <v>-649334.3398440413</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J159" t="n">
-        <v>3.824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5769,19 +5665,11 @@
         <v>-648407.8718440413</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="J160" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5810,19 +5698,11 @@
         <v>-655177.5308440413</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.826</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5851,19 +5731,11 @@
         <v>-652620.0228440412</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5895,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5934,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5970,19 +5830,11 @@
         <v>-655541.4038440412</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6011,19 +5863,11 @@
         <v>-655881.6668440412</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J166" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6055,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6094,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6130,19 +5962,11 @@
         <v>-654474.2568440412</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6171,19 +5995,11 @@
         <v>-653463.1948440411</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J170" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6212,19 +6028,11 @@
         <v>-655136.7728440411</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J171" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6253,19 +6061,11 @@
         <v>-655136.7728440411</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J172" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6294,19 +6094,11 @@
         <v>-655136.7728440411</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J173" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6335,19 +6127,11 @@
         <v>-653581.1838440411</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J174" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6376,19 +6160,11 @@
         <v>-654033.496844041</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J175" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6417,19 +6193,11 @@
         <v>-652882.8648440411</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J176" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6458,19 +6226,11 @@
         <v>-654808.1888440411</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J177" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6499,19 +6259,11 @@
         <v>-654405.496844041</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J178" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6540,19 +6292,11 @@
         <v>-655692.304844041</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J179" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6581,19 +6325,11 @@
         <v>-653619.037844041</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6622,19 +6358,11 @@
         <v>-654057.154844041</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6663,19 +6391,11 @@
         <v>-652879.782844041</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J182" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6704,19 +6424,11 @@
         <v>-650666.553844041</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J183" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6745,19 +6457,11 @@
         <v>-649868.747844041</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J184" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6789,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6825,19 +6523,11 @@
         <v>-653150.6528440409</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6866,19 +6556,11 @@
         <v>-653150.6528440409</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6907,19 +6589,11 @@
         <v>-653150.6528440409</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6948,19 +6622,11 @@
         <v>-653150.6528440409</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6989,19 +6655,11 @@
         <v>-652276.7248440409</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7030,19 +6688,11 @@
         <v>-650875.7758440409</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.822</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7071,19 +6721,11 @@
         <v>-648731.0718440409</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7112,19 +6754,11 @@
         <v>-648159.2898440409</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.826</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7153,19 +6787,11 @@
         <v>-1079778.464544041</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.827</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7194,19 +6820,11 @@
         <v>-1077641.966544041</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="J195" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7235,19 +6853,11 @@
         <v>-1077641.966544041</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J196" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7276,19 +6886,11 @@
         <v>-1077641.966544041</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J197" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7317,19 +6919,11 @@
         <v>-1073139.413544041</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J198" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7358,19 +6952,11 @@
         <v>-1071840.544544041</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J199" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7399,19 +6985,11 @@
         <v>-1076659.317544041</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7440,19 +7018,11 @@
         <v>-1061834.210544041</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7481,19 +7051,11 @@
         <v>-1064944.395544041</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J202" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7522,19 +7084,11 @@
         <v>-1064944.395544041</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J203" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7563,19 +7117,11 @@
         <v>-1054871.819544041</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>3.823</v>
-      </c>
-      <c r="J204" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7604,19 +7150,11 @@
         <v>-1053972.357544041</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="J205" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7648,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7687,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7765,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7804,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7843,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7882,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7921,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7960,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7999,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8038,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8077,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8116,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8155,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8194,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8233,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8272,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8311,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8350,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8389,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8428,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8467,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8506,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8545,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8584,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8623,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8662,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8701,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8740,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8779,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8818,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8857,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8896,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8935,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8974,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9013,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9052,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9130,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9166,19 +8470,11 @@
         <v>-953746.5903440409</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J245" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9210,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9246,19 +8536,11 @@
         <v>-955415.6223440409</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3.849</v>
-      </c>
-      <c r="J247" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9287,19 +8569,11 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J248" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9328,19 +8602,11 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3.849</v>
-      </c>
-      <c r="J249" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9372,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9408,19 +8668,11 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3.849</v>
-      </c>
-      <c r="J251" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9452,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9491,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9530,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9569,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9608,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9647,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9686,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9725,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9764,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9803,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9842,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9881,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9920,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9959,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9998,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10037,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10073,19 +9229,13 @@
         <v>1026325.4138</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3.824</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
-        <v>1.007029288702929</v>
+        <v>1</v>
       </c>
       <c r="M268" t="inlineStr"/>
     </row>
@@ -10112,7 +9262,7 @@
         <v>1182464.253800001</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10145,7 +9295,7 @@
         <v>1476461.198800001</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10178,7 +9328,7 @@
         <v>1055101.630800001</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10211,7 +9361,7 @@
         <v>528353.7188000006</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10277,7 +9427,7 @@
         <v>465788.3823806591</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10310,7 +9460,7 @@
         <v>234256.728380659</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10343,7 +9493,7 @@
         <v>404126.9993806591</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10376,7 +9526,7 @@
         <v>-25524.65561934095</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10409,7 +9559,7 @@
         <v>-77494.52961934096</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10442,7 +9592,7 @@
         <v>-77494.52961934096</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10475,7 +9625,7 @@
         <v>-190470.026619341</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10640,7 +9790,7 @@
         <v>-624020.9447467693</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11003,7 +10153,7 @@
         <v>-1383444.657527389</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11135,7 +10285,7 @@
         <v>-1944397.83952739</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11168,7 +10318,7 @@
         <v>-1200498.55352739</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11234,7 +10384,7 @@
         <v>-980598.7945273897</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11267,7 +10417,7 @@
         <v>-1280082.29252739</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11399,7 +10549,7 @@
         <v>-415143.0335273898</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12554,7 +11704,7 @@
         <v>-68641.86990607716</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12587,7 +11737,7 @@
         <v>-12747.32690607716</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12620,7 +11770,7 @@
         <v>-193566.9979060772</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12653,7 +11803,7 @@
         <v>64434.52109392284</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12686,7 +11836,7 @@
         <v>-249136.9419060771</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12719,7 +11869,7 @@
         <v>-273680.5869060772</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12752,7 +11902,7 @@
         <v>-273680.5869060772</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12785,7 +11935,7 @@
         <v>-530666.0389060772</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12818,7 +11968,7 @@
         <v>-684746.8329060772</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12851,7 +12001,7 @@
         <v>-303185.5559060771</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12884,7 +12034,7 @@
         <v>-1192538.175106077</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12917,7 +12067,7 @@
         <v>-1192538.175106077</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12950,7 +12100,7 @@
         <v>-1042085.496306077</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12983,7 +12133,7 @@
         <v>-988423.291306077</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13016,7 +12166,7 @@
         <v>-988423.291306077</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13049,7 +12199,7 @@
         <v>-988423.291306077</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13082,7 +12232,7 @@
         <v>-813693.4853060771</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13115,7 +12265,7 @@
         <v>-1204121.205306077</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13148,7 +12298,7 @@
         <v>-1215290.826306077</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13181,7 +12331,7 @@
         <v>-1173414.806306077</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13214,7 +12364,7 @@
         <v>-1075469.220306077</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13247,7 +12397,7 @@
         <v>-1223306.143306077</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13280,7 +12430,7 @@
         <v>-1017066.358481335</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13313,7 +12463,7 @@
         <v>-941266.0325060771</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13346,7 +12496,7 @@
         <v>-941266.0325060771</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13379,7 +12529,7 @@
         <v>-734022.737506077</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13412,7 +12562,7 @@
         <v>-1039387.863506077</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13445,7 +12595,7 @@
         <v>-1446659.989506077</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13478,7 +12628,7 @@
         <v>-1446659.989506077</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13511,7 +12661,7 @@
         <v>-1312572.022106077</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13544,7 +12694,7 @@
         <v>-980520.637106077</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13577,7 +12727,7 @@
         <v>-1175675.911106077</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13610,7 +12760,7 @@
         <v>-1175675.911106077</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13643,7 +12793,7 @@
         <v>-1167290.640106077</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13676,7 +12826,7 @@
         <v>-1167290.640106077</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14006,7 +13156,7 @@
         <v>-2099042.581493037</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14039,7 +13189,7 @@
         <v>-2028342.926225547</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14072,7 +13222,7 @@
         <v>-2208527.175225547</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14105,7 +13255,7 @@
         <v>-2208527.175225547</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14204,7 +13354,7 @@
         <v>-3003578.703325547</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -18032,7 +17182,7 @@
         <v>-1647001.309647693</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18164,7 +17314,7 @@
         <v>-1533861.553041229</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18197,7 +17347,7 @@
         <v>-1533861.553041229</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18230,7 +17380,7 @@
         <v>-1211893.078041228</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18560,7 +17710,7 @@
         <v>-1871878.496041229</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18593,7 +17743,7 @@
         <v>-1871878.496041229</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18626,7 +17776,7 @@
         <v>-1657454.892041228</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18659,7 +17809,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18692,7 +17842,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18725,7 +17875,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18758,7 +17908,7 @@
         <v>-2011852.923041228</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18791,7 +17941,7 @@
         <v>-2068457.120041228</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18890,7 +18040,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18923,7 +18073,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18956,7 +18106,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19055,7 +18205,7 @@
         <v>-2816574.323741228</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19088,7 +18238,7 @@
         <v>-3266978.713041228</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19121,7 +18271,7 @@
         <v>-3174542.265041228</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19187,7 +18337,7 @@
         <v>-2987581.741041228</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19220,7 +18370,7 @@
         <v>-3465526.076041228</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19253,7 +18403,7 @@
         <v>-3465526.076041228</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19286,7 +18436,7 @@
         <v>-3465526.076041228</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19319,7 +18469,7 @@
         <v>-3465526.076041228</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19352,7 +18502,7 @@
         <v>-3295651.173041228</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19385,7 +18535,7 @@
         <v>-3066148.025041228</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19418,7 +18568,7 @@
         <v>-3128119.207041228</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19451,7 +18601,7 @@
         <v>-3286640.898041228</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19484,7 +18634,7 @@
         <v>-3501073.196041228</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19517,7 +18667,7 @@
         <v>-3501073.196041228</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19550,7 +18700,7 @@
         <v>-3086233.481041228</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19583,7 +18733,7 @@
         <v>-3103082.647041229</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19616,7 +18766,7 @@
         <v>-3272533.669041228</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19649,7 +18799,7 @@
         <v>-2905676.171041228</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19682,7 +18832,7 @@
         <v>-2210022.969041228</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19715,7 +18865,7 @@
         <v>-1365148.518041228</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19748,7 +18898,7 @@
         <v>-1313541.452041228</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19781,7 +18931,7 @@
         <v>-1313541.452041228</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19814,7 +18964,7 @@
         <v>-951640.7060412283</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19847,7 +18997,7 @@
         <v>-1175279.318041228</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19880,7 +19030,7 @@
         <v>-682747.0750412282</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21794,7 +20944,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21827,7 +20977,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21860,7 +21010,7 @@
         <v>-1261665.625851771</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21893,7 +21043,7 @@
         <v>-1323225.734851771</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21926,7 +21076,7 @@
         <v>-1256756.544851771</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21959,7 +21109,7 @@
         <v>-1043324.601851771</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21992,7 +21142,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22025,7 +21175,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22058,7 +21208,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22091,7 +21241,7 @@
         <v>-1719372.237851771</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22124,7 +21274,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22157,7 +21307,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22190,7 +21340,7 @@
         <v>-1526923.101851771</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22223,7 +21373,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22256,7 +21406,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22289,7 +21439,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22322,7 +21472,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22355,7 +21505,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22388,7 +21538,7 @@
         <v>-1544997.733851771</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22421,7 +21571,7 @@
         <v>-1592778.784851771</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22454,7 +21604,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22487,7 +21637,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22520,7 +21670,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22553,7 +21703,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22586,7 +21736,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22619,7 +21769,7 @@
         <v>-1658429.919351771</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22817,7 +21967,7 @@
         <v>-1925609.014851771</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22850,7 +22000,7 @@
         <v>-1925937.400851771</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22883,7 +22033,7 @@
         <v>-1925937.400851771</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22916,7 +22066,7 @@
         <v>-1925937.400851771</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22949,7 +22099,7 @@
         <v>-1924118.112851771</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22982,7 +22132,7 @@
         <v>-1923612.527851771</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23015,7 +22165,7 @@
         <v>-1925040.801851771</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23048,7 +22198,7 @@
         <v>-1923297.555851771</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23081,7 +22231,7 @@
         <v>-2044751.775251771</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23114,7 +22264,7 @@
         <v>-2044883.150251771</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23147,7 +22297,7 @@
         <v>-2005220.875851771</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23180,7 +22330,7 @@
         <v>-2006332.528851771</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23213,7 +22363,7 @@
         <v>-1988624.173651771</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23246,7 +22396,7 @@
         <v>-1985595.053651771</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23279,7 +22429,7 @@
         <v>-1987974.216651771</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23312,7 +22462,7 @@
         <v>-1987974.216651771</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23345,7 +22495,7 @@
         <v>-1984231.422651771</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23378,7 +22528,7 @@
         <v>-1988861.035651771</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23411,7 +22561,7 @@
         <v>-1988507.594651771</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23444,7 +22594,7 @@
         <v>-1989390.777651771</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23477,7 +22627,7 @@
         <v>-1987281.431651771</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23510,7 +22660,7 @@
         <v>-1990839.423651771</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23543,7 +22693,7 @@
         <v>-1990708.149651771</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23576,7 +22726,7 @@
         <v>-2003351.260651771</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23609,7 +22759,7 @@
         <v>-1973362.116651771</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23642,7 +22792,7 @@
         <v>-1973362.116651771</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23675,7 +22825,7 @@
         <v>-1943559.134651771</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23708,7 +22858,7 @@
         <v>-1943559.134651771</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23741,7 +22891,7 @@
         <v>-1884697.420651771</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23774,7 +22924,7 @@
         <v>-1884697.420651771</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23807,7 +22957,7 @@
         <v>-1859386.125651771</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23840,7 +22990,7 @@
         <v>-1899324.041651771</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23873,7 +23023,7 @@
         <v>-1888331.983651771</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23906,7 +23056,7 @@
         <v>-1871823.993651771</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23939,7 +23089,7 @@
         <v>-1871823.993651771</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23972,7 +23122,7 @@
         <v>-1902747.889651771</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24005,7 +23155,7 @@
         <v>-2212162.848951771</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24038,7 +23188,7 @@
         <v>-2314423.401251771</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24071,7 +23221,7 @@
         <v>-2282236.672251771</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24104,7 +23254,7 @@
         <v>-2282101.571251771</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24137,7 +23287,7 @@
         <v>-2473975.320451771</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24170,7 +23320,7 @@
         <v>-2665339.485251771</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24203,7 +23353,7 @@
         <v>-3052302.390751771</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24236,7 +23386,7 @@
         <v>-3524414.363351771</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24269,7 +23419,7 @@
         <v>-3524414.363351771</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24302,7 +23452,7 @@
         <v>-3524414.363351771</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24335,7 +23485,7 @@
         <v>-3524414.363351771</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24368,7 +23518,7 @@
         <v>-3590576.949551771</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24401,7 +23551,7 @@
         <v>-3943095.220051771</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24434,7 +23584,7 @@
         <v>-3943095.220051771</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24467,7 +23617,7 @@
         <v>-4423031.427051771</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24500,7 +23650,7 @@
         <v>-4845745.701051772</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24533,7 +23683,7 @@
         <v>-4811210.880051771</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26183,10 +25333,14 @@
         <v>-4434141.31805177</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J756" t="n">
+        <v>3.858</v>
+      </c>
       <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
@@ -26216,11 +25370,19 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="J757" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26249,11 +25411,19 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J758" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26282,10 +25452,14 @@
         <v>-4325822.47205177</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J759" t="n">
+        <v>3.858</v>
+      </c>
       <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
@@ -26315,11 +25489,19 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="J760" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26351,8 +25533,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26381,10 +25569,14 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J762" t="n">
+        <v>3.858</v>
+      </c>
       <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
@@ -26417,8 +25609,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26450,8 +25648,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28790,10 +27994,14 @@
         <v>-4614768.520351768</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J835" t="n">
+        <v>3.855</v>
+      </c>
       <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
@@ -28826,8 +28034,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28859,8 +28073,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28889,10 +28109,14 @@
         <v>-4628984.304351768</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J838" t="n">
+        <v>3.853</v>
+      </c>
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
@@ -28922,11 +28146,19 @@
         <v>-4836487.626351767</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J839" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28955,11 +28187,19 @@
         <v>-4598157.232351767</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J840" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -34763,10 +34003,14 @@
         <v>-7882464.035493004</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>3.852</v>
+      </c>
       <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
@@ -34796,11 +34040,19 @@
         <v>-8020247.659893004</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34829,11 +34081,19 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34862,11 +34122,19 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34895,11 +34163,19 @@
         <v>-8095837.212393004</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34928,11 +34204,19 @@
         <v>-7802969.045268994</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34964,8 +34248,14 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34997,8 +34287,14 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35030,8 +34326,14 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35063,8 +34365,14 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35096,8 +34404,14 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35129,8 +34443,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35162,8 +34482,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35195,8 +34521,14 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35228,8 +34560,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35261,8 +34599,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35294,8 +34638,14 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35327,8 +34677,14 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35360,8 +34716,14 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35393,8 +34755,14 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35423,11 +34791,19 @@
         <v>-7782119.585468994</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35456,11 +34832,19 @@
         <v>-7779609.444468994</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35492,8 +34876,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35522,11 +34912,19 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35555,11 +34953,19 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35588,11 +34994,19 @@
         <v>-7775360.493468994</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35621,11 +35035,19 @@
         <v>-7774393.912468994</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35654,11 +35076,19 @@
         <v>-7776866.577468994</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35687,11 +35117,19 @@
         <v>-7772408.864468994</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35720,11 +35158,19 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35753,11 +35199,19 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35786,11 +35240,19 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35819,11 +35281,19 @@
         <v>-7769193.185468993</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35852,11 +35322,19 @@
         <v>-7769591.264468993</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35885,11 +35363,19 @@
         <v>-7768281.086468993</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35918,11 +35404,19 @@
         <v>-7770493.171468993</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35951,11 +35445,19 @@
         <v>-7767392.353468993</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35984,11 +35486,19 @@
         <v>-7766749.574468993</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36020,8 +35530,14 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="J1054" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36053,8 +35569,14 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="J1055" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36086,8 +35608,14 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36119,8 +35647,14 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="J1057" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36152,8 +35686,14 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="J1058" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36185,8 +35725,14 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36218,8 +35764,14 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36251,8 +35803,14 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36284,8 +35842,14 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36317,8 +35881,14 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36350,8 +35920,14 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36383,8 +35959,14 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36416,8 +35998,14 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36449,8 +36037,14 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36482,8 +36076,14 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36515,8 +36115,14 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36548,8 +36154,14 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36581,8 +36193,14 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36614,8 +36232,14 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36647,14 +36271,20 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
       <c r="M1073" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-22 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7513,7 +7513,7 @@
         <v>-1017093.186344041</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1017093.186344041</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1020799.582344041</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1015843.394344041</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1014047.306344041</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1017307.258344041</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1022005.110344041</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1022835.710344041</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1024926.353344041</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1018925.075344041</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-989728.6593440407</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1016627.444344041</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-985346.1243440408</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-952251.9853440408</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-950315.0483440408</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-956117.2153440408</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-963917.2383440408</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-961732.8343440408</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-958002.0143440409</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-952650.8223440408</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-952166.3253440409</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-953746.5903440409</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-956169.8513440409</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-955415.6223440409</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-885228.4943440409</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1215035.718344041</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-454286.7443440409</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>828361.8497000006</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-624020.9447467693</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-621894.8270467692</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-621894.8270467692</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-368424.2315273893</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1383444.657527389</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1944397.83952739</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1200498.55352739</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-980598.7945273897</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1280082.29252739</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-415143.0335273898</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-68641.86990607716</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-12747.32690607716</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-193566.9979060772</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>64434.52109392284</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-249136.9419060771</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-273680.5869060772</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-273680.5869060772</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-530666.0389060772</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-684746.8329060772</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-303185.5559060771</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1192538.175106077</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1192538.175106077</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1042085.496306077</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-988423.291306077</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-988423.291306077</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-988423.291306077</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-813693.4853060771</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1204121.205306077</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1215290.826306077</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1173414.806306077</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1075469.220306077</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1223306.143306077</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1017066.358481335</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-941266.0325060771</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-941266.0325060771</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-734022.737506077</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1039387.863506077</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1446659.989506077</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1446659.989506077</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1312572.022106077</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-980520.637106077</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1175675.911106077</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1175675.911106077</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1167290.640106077</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1167290.640106077</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-2099042.581493037</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-2028342.926225547</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-2208527.175225547</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-2208527.175225547</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1193730.926247693</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1832504.947247693</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1951212.614247693</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1871878.496041229</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1871878.496041229</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1657454.892041228</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-2011852.923041228</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-2068457.120041228</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-2816574.323741228</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-3266978.713041228</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-3174542.265041228</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-2987581.741041228</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-3465526.076041228</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-3465526.076041228</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-3465526.076041228</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-3295651.173041228</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-3066148.025041228</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-3128119.207041228</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-3286640.898041228</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-3501073.196041228</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-3501073.196041228</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-3086233.481041228</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-3103082.647041229</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-3272533.669041228</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-2905676.171041228</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-2210022.969041228</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-1365148.518041228</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-1313541.452041228</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-1313541.452041228</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-951640.7060412283</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-1175279.318041228</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-682747.0750412282</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-1323225.734851771</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-1256756.544851771</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1043324.601851771</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-1719372.237851771</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-1526923.101851771</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-1544997.733851771</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-1592778.784851771</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-1658429.919351771</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-1923297.555851771</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-2044751.775251771</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-2044883.150251771</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-2005220.875851771</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-2006332.528851771</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-1988624.173651771</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-1985595.053651771</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-1987974.216651771</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-1987974.216651771</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-1984231.422651771</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-1988861.035651771</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-1988507.594651771</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-1989390.777651771</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-1987281.431651771</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-1990839.423651771</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-1990708.149651771</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-2003351.260651771</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-1973362.116651771</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-1973362.116651771</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-1943559.134651771</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-1943559.134651771</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-1884697.420651771</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-1884697.420651771</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-1859386.125651771</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-1899324.041651771</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-1888331.983651771</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-1871823.993651771</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-1871823.993651771</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-1902747.889651771</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-2212162.848951771</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-2314423.401251771</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-2282236.672251771</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-2282101.571251771</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-2473975.320451771</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-2665339.485251771</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-3052302.390751771</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-3524414.363351771</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-3524414.363351771</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-3524414.363351771</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-3524414.363351771</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-3590576.949551771</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-3943095.220051771</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-3943095.220051771</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-4423031.427051771</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-4845745.701051772</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-4811210.880051771</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25333,14 +25333,10 @@
         <v>-4434141.31805177</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="J756" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
@@ -25370,19 +25366,11 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>3.859</v>
-      </c>
-      <c r="J757" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25411,19 +25399,11 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="J758" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25452,14 +25432,10 @@
         <v>-4325822.47205177</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="J759" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
@@ -25489,19 +25465,11 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>3.859</v>
-      </c>
-      <c r="J760" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25533,14 +25501,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25569,14 +25531,10 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="J762" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
@@ -25609,14 +25567,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25648,14 +25600,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27994,14 +27940,10 @@
         <v>-4614768.520351768</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="J835" t="n">
-        <v>3.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
@@ -28034,14 +27976,8 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28073,14 +28009,8 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28109,14 +28039,10 @@
         <v>-4628984.304351768</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="J838" t="n">
-        <v>3.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
@@ -28146,19 +28072,11 @@
         <v>-4836487.626351767</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="J839" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28187,19 +28105,11 @@
         <v>-4598157.232351767</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>3.854</v>
-      </c>
-      <c r="J840" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -34003,14 +33913,10 @@
         <v>-7882464.035493004</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J1016" t="n">
-        <v>3.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
@@ -34040,19 +33946,11 @@
         <v>-8020247.659893004</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J1017" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34081,19 +33979,11 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J1018" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34122,19 +34012,11 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1019" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J1019" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34163,19 +34045,11 @@
         <v>-8095837.212393004</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J1020" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34204,19 +34078,11 @@
         <v>-7802969.045268994</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J1021" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34248,14 +34114,8 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34287,14 +34147,8 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34326,14 +34180,8 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34365,14 +34213,8 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34404,14 +34246,8 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34443,14 +34279,8 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34482,14 +34312,8 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34521,14 +34345,8 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34560,14 +34378,8 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34599,14 +34411,8 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34638,14 +34444,8 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34677,14 +34477,8 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34716,14 +34510,8 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34755,14 +34543,8 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34791,19 +34573,11 @@
         <v>-7782119.585468994</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J1036" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34832,19 +34606,11 @@
         <v>-7779609.444468994</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1037" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="J1037" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34876,14 +34642,8 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34912,19 +34672,11 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1039" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J1039" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34953,19 +34705,11 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1040" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J1040" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34994,19 +34738,11 @@
         <v>-7775360.493468994</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J1041" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35041,13 +34777,9 @@
         <v>3.865</v>
       </c>
       <c r="J1042" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.865</v>
+      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35076,17 +34808,15 @@
         <v>-7776866.577468994</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>3.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="n">
-        <v>3.852</v>
+        <v>3.865</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1043" t="n">
@@ -35117,17 +34847,15 @@
         <v>-7772408.864468994</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="n">
-        <v>3.852</v>
+        <v>3.865</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1044" t="n">
@@ -35158,19 +34886,11 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="J1045" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35199,19 +34919,11 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J1046" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35240,19 +34952,11 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J1047" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35281,19 +34985,11 @@
         <v>-7769193.185468993</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1048" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J1048" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35328,13 +35024,9 @@
         <v>3.865</v>
       </c>
       <c r="J1049" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.865</v>
+      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35363,17 +35055,15 @@
         <v>-7768281.086468993</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="n">
-        <v>3.852</v>
+        <v>3.865</v>
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1050" t="n">
@@ -35404,17 +35094,15 @@
         <v>-7770493.171468993</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
+      <c r="J1051" t="n">
         <v>3.865</v>
-      </c>
-      <c r="J1051" t="n">
-        <v>3.852</v>
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1051" t="n">
@@ -35445,19 +35133,11 @@
         <v>-7767392.353468993</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J1052" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
+      <c r="J1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35486,19 +35166,11 @@
         <v>-7766749.574468993</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="J1053" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
+      <c r="J1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35530,14 +35202,8 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35569,14 +35235,8 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35608,14 +35268,8 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35647,14 +35301,8 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35686,14 +35334,8 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35725,14 +35367,8 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35764,14 +35400,8 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35803,14 +35433,8 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35842,14 +35466,8 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35881,14 +35499,8 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35920,14 +35532,8 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35959,14 +35565,8 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35998,14 +35598,8 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36037,14 +35631,8 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36076,14 +35664,8 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36115,14 +35697,8 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36154,14 +35730,8 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36193,14 +35763,8 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36232,14 +35796,8 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36271,20 +35829,14 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
       <c r="M1073" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-22 BackTest TMTG.xlsx
@@ -7513,7 +7513,7 @@
         <v>-1017093.186344041</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1017093.186344041</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1020799.582344041</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1015843.394344041</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1014047.306344041</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1017307.258344041</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1022005.110344041</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1022835.710344041</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1024926.353344041</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1018925.075344041</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-989728.6593440407</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1016627.444344041</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-985346.1243440408</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-952251.9853440408</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-950315.0483440408</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-956117.2153440408</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-963917.2383440408</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-961732.8343440408</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-958002.0143440409</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-952650.8223440408</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-952166.3253440409</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-953746.5903440409</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-956169.8513440409</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-955415.6223440409</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-959220.4333440409</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-885228.4943440409</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1215035.718344041</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-454286.7443440409</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>828361.8497000006</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-624020.9447467693</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-621894.8270467692</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-621894.8270467692</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-368424.2315273893</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>146049.0560939229</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>218091.7370939229</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-68641.86990607716</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1193730.926247693</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1629191.965247693</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1832504.947247693</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1951212.614247693</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1871878.496041229</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1871878.496041229</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1657454.892041228</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-2047263.739041229</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-2068457.120041228</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-2226923.933041228</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-2473776.175041229</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-531028.9118517712</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-1261665.625851771</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-1323225.734851771</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-1256756.544851771</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1043324.601851771</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-1404215.067851771</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-1719372.237851771</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-1137878.743851771</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-1526923.101851771</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-1492815.275851771</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-1544997.733851771</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-1592778.784851771</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-1658681.484851771</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-1657192.313351771</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-1658429.919351771</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-1660313.159351771</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-1703041.477851771</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-1703041.477851771</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-1705586.643851771</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-1925740.389851771</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-1925609.014851771</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-1925937.400851771</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-1925937.400851771</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-1924118.112851771</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-1923612.527851771</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25366,10 +25366,14 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="J757" t="n">
+        <v>3.859</v>
+      </c>
       <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
@@ -25399,11 +25403,19 @@
         <v>-4442933.39205177</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J758" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25435,8 +25447,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25531,10 +25549,14 @@
         <v>-4472122.026051771</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J762" t="n">
+        <v>3.858</v>
+      </c>
       <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
@@ -25567,8 +25589,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25600,8 +25628,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27313,10 +27347,14 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J816" t="n">
+        <v>3.854</v>
+      </c>
       <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
@@ -27346,11 +27384,19 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J817" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27379,11 +27425,19 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J818" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27412,10 +27466,14 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J819" t="n">
+        <v>3.853</v>
+      </c>
       <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
@@ -27445,11 +27503,19 @@
         <v>-5022815.050351768</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J820" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27481,8 +27547,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27544,10 +27616,14 @@
         <v>-5022096.798351767</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J823" t="n">
+        <v>3.853</v>
+      </c>
       <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
@@ -27577,11 +27653,19 @@
         <v>-4959926.506351767</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J824" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27613,8 +27697,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27874,10 +27964,14 @@
         <v>-4862825.316351768</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J833" t="n">
+        <v>3.855</v>
+      </c>
       <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
@@ -27907,11 +28001,19 @@
         <v>-4718306.858351768</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J834" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27940,11 +28042,19 @@
         <v>-4614768.520351768</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J835" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27976,8 +28086,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28006,11 +28122,19 @@
         <v>-4832270.748351768</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J837" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28163,19 @@
         <v>-4628984.304351768</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J838" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +28204,19 @@
         <v>-4836487.626351767</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J839" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28105,11 +28245,19 @@
         <v>-4598157.232351767</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J840" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28286,19 @@
         <v>-4343952.316351767</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="J841" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28327,19 @@
         <v>-4643568.988351767</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="J842" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28368,19 @@
         <v>-4578488.390351767</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J843" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28237,11 +28409,19 @@
         <v>-4474238.650351766</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="J844" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28273,8 +28453,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28306,8 +28492,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28339,8 +28531,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28372,8 +28570,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28405,8 +28609,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28438,8 +28648,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28471,8 +28687,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28504,8 +28726,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28537,8 +28765,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28570,8 +28804,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28603,8 +28843,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28636,8 +28882,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28669,8 +28921,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28702,8 +28960,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28735,8 +28999,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28768,8 +29038,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28801,8 +29077,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28834,8 +29116,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28867,8 +29155,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28900,8 +29194,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28933,8 +29233,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28966,8 +29272,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -28999,8 +29311,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29032,8 +29350,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29065,8 +29389,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29098,8 +29428,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29131,8 +29467,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29164,8 +29506,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29197,8 +29545,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29230,8 +29584,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29263,8 +29623,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29296,8 +29662,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29329,8 +29701,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29362,8 +29740,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29395,8 +29779,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29428,8 +29818,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29461,8 +29857,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29494,8 +29896,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29527,8 +29935,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29560,8 +29974,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29593,8 +30013,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29626,8 +30052,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29659,8 +30091,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29692,8 +30130,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29725,8 +30169,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29758,8 +30208,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29791,8 +30247,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29824,8 +30286,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29857,8 +30325,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29890,8 +30364,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29923,8 +30403,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29956,8 +30442,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29989,8 +30481,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30022,8 +30520,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30055,8 +30559,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30088,8 +30598,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30121,8 +30637,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30154,8 +30676,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30187,8 +30715,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30220,8 +30754,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30253,8 +30793,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30286,8 +30832,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30319,8 +30871,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30352,8 +30910,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30385,8 +30949,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30418,8 +30988,14 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30451,8 +31027,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30484,8 +31066,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30517,8 +31105,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30550,8 +31144,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30583,8 +31183,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30616,8 +31222,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30649,8 +31261,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30682,8 +31300,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30715,8 +31339,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30748,8 +31378,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30781,8 +31417,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30814,8 +31456,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30847,8 +31495,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30880,8 +31534,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30913,8 +31573,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30946,8 +31612,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30979,8 +31651,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31012,8 +31690,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31045,8 +31729,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31078,8 +31768,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31111,8 +31807,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31144,8 +31846,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31177,8 +31885,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31210,8 +31924,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31243,8 +31963,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31276,8 +32002,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31309,8 +32041,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31342,8 +32080,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31375,8 +32119,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31408,8 +32158,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31441,8 +32197,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31474,8 +32236,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31507,8 +32275,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31540,8 +32314,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31573,8 +32353,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31606,8 +32392,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31639,8 +32431,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31672,8 +32470,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31705,8 +32509,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31738,8 +32548,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31771,8 +32587,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31804,8 +32626,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31837,8 +32665,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31870,8 +32704,14 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31903,8 +32743,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31936,8 +32782,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31969,8 +32821,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32002,8 +32860,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32035,8 +32899,14 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32068,8 +32938,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32101,8 +32977,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32134,8 +33016,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32167,8 +33055,14 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32200,8 +33094,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32233,8 +33133,14 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32266,8 +33172,14 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32299,8 +33211,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32332,8 +33250,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32365,8 +33289,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32398,8 +33328,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32431,8 +33367,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32464,8 +33406,14 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32497,8 +33445,14 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32530,8 +33484,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32563,8 +33523,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32596,8 +33562,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32629,8 +33601,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32662,8 +33640,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32695,8 +33679,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32728,8 +33718,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32761,8 +33757,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32794,8 +33796,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32827,8 +33835,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32860,8 +33874,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32893,8 +33913,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32926,8 +33952,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32959,8 +33991,14 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32992,8 +34030,14 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33025,8 +34069,14 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33058,8 +34108,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33091,8 +34147,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33124,8 +34186,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33157,8 +34225,14 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33190,8 +34264,14 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33223,8 +34303,14 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33256,8 +34342,14 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33289,8 +34381,14 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33322,8 +34420,14 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33355,8 +34459,14 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33388,8 +34498,14 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33421,8 +34537,14 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33454,8 +34576,14 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33487,8 +34615,14 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33520,8 +34654,14 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33553,8 +34693,14 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33586,8 +34732,14 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33619,8 +34771,14 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33652,8 +34810,14 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33685,8 +34849,14 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33718,8 +34888,14 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33751,8 +34927,14 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33784,8 +34966,14 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33817,8 +35005,14 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33850,8 +35044,14 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33883,8 +35083,14 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33913,11 +35119,19 @@
         <v>-7882464.035493004</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33946,11 +35160,19 @@
         <v>-8020247.659893004</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33979,11 +35201,19 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34012,11 +35242,19 @@
         <v>-8019851.011893004</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34045,11 +35283,19 @@
         <v>-8095837.212393004</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34078,11 +35324,19 @@
         <v>-7802969.045268994</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34111,11 +35365,19 @@
         <v>-7757721.052068993</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>3.884</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34147,8 +35409,14 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34180,8 +35448,14 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34213,8 +35487,14 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34246,8 +35526,14 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34279,8 +35565,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34312,8 +35604,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34342,11 +35640,19 @@
         <v>-7787145.005468993</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34375,11 +35681,19 @@
         <v>-7783306.404468993</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34408,11 +35722,19 @@
         <v>-7782843.250468993</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34441,11 +35763,19 @@
         <v>-7781573.732468992</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>3.863</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34474,11 +35804,19 @@
         <v>-7784006.075468993</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34507,11 +35845,19 @@
         <v>-7783874.088468993</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34540,11 +35886,19 @@
         <v>-7783874.088468993</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34573,11 +35927,19 @@
         <v>-7782119.585468994</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34606,11 +35968,19 @@
         <v>-7779609.444468994</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34639,11 +36009,19 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34672,11 +36050,19 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34705,11 +36091,19 @@
         <v>-7779949.093468994</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34738,11 +36132,19 @@
         <v>-7775360.493468994</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34777,9 +36179,13 @@
         <v>3.865</v>
       </c>
       <c r="J1042" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="K1042" t="inlineStr"/>
+        <v>3.855</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34808,15 +36214,17 @@
         <v>-7776866.577468994</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>3.866</v>
+      </c>
       <c r="J1043" t="n">
-        <v>3.865</v>
+        <v>3.855</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1043" t="n">
@@ -34847,15 +36255,17 @@
         <v>-7772408.864468994</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>3.864</v>
+      </c>
       <c r="J1044" t="n">
-        <v>3.865</v>
+        <v>3.855</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1044" t="n">
@@ -34886,11 +36296,19 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34919,11 +36337,19 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34952,11 +36378,19 @@
         <v>-7772540.851468993</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34985,11 +36419,19 @@
         <v>-7769193.185468993</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35024,9 +36466,13 @@
         <v>3.865</v>
       </c>
       <c r="J1049" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="K1049" t="inlineStr"/>
+        <v>3.855</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35055,15 +36501,17 @@
         <v>-7768281.086468993</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>3.864</v>
+      </c>
       <c r="J1050" t="n">
-        <v>3.865</v>
+        <v>3.855</v>
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1050" t="n">
@@ -35094,15 +36542,17 @@
         <v>-7770493.171468993</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>3.865</v>
+      </c>
       <c r="J1051" t="n">
-        <v>3.865</v>
+        <v>3.855</v>
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1051" t="n">
@@ -35133,11 +36583,19 @@
         <v>-7767392.353468993</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35166,11 +36624,19 @@
         <v>-7766749.574468993</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35199,11 +36665,19 @@
         <v>-1989048.301468993</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35232,11 +36706,19 @@
         <v>-1986903.201468993</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35265,11 +36747,19 @@
         <v>-1121036.840768992</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35301,8 +36791,14 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="J1057" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35334,8 +36830,14 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="J1058" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35367,8 +36869,14 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35400,8 +36908,14 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35433,8 +36947,14 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35466,8 +36986,14 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35499,8 +37025,14 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35532,8 +37064,14 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35565,8 +37103,14 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35598,8 +37142,14 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35631,8 +37181,14 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35664,8 +37220,14 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35697,8 +37259,14 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35730,8 +37298,14 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35763,8 +37337,14 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35796,8 +37376,14 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35829,8 +37415,14 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
